--- a/docs/StructureDefinition-bc-provider-bundle.xlsx
+++ b/docs/StructureDefinition-bc-provider-bundle.xlsx
@@ -6303,7 +6303,7 @@
         <v>49</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>50</v>
